--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2061048.548922256</v>
+        <v>-2063636.060127833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>345.3929617619854</v>
       </c>
       <c r="G2" t="n">
-        <v>228.0503805975879</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.0814842140681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173972</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.57537194352383</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>98.62837588899009</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.75508979453129</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
         <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>325.5519904991499</v>
+        <v>251.2852794514148</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>32.83323659136506</v>
       </c>
       <c r="X7" t="n">
-        <v>153.3754508701911</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>240.7922713306604</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.76470074482877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>42.86209348694693</v>
+        <v>138.8346023448381</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.7122866515545</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899565</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389241</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.05355358058027</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>94.30373791808222</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>44.75138076689282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>164.8280908524512</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>100.1928033809245</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.0656089242822</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605715674</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652685</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265268</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.768045353422</v>
+        <v>1602.317682074392</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.805528413011</v>
+        <v>1233.35516513398</v>
       </c>
       <c r="D2" t="n">
-        <v>678.5398298062601</v>
+        <v>875.0894665272299</v>
       </c>
       <c r="E2" t="n">
-        <v>292.751577208016</v>
+        <v>875.0894665272299</v>
       </c>
       <c r="F2" t="n">
-        <v>292.751577208016</v>
+        <v>526.2076869696689</v>
       </c>
       <c r="G2" t="n">
-        <v>62.39765741247274</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247274</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
         <v>62.39765741247274</v>
       </c>
       <c r="J2" t="n">
-        <v>237.100139173031</v>
+        <v>237.1001391730312</v>
       </c>
       <c r="K2" t="n">
-        <v>549.672390631569</v>
+        <v>549.6723906315693</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529733</v>
+        <v>974.3476699529731</v>
       </c>
       <c r="M2" t="n">
         <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
         <v>2470.354450076069</v>
@@ -4358,22 +4358,22 @@
         <v>3119.882870623637</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.882870623637</v>
+        <v>2913.159093565753</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.33876000704</v>
+        <v>2659.614982949157</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.27587266347</v>
+        <v>2328.552095605586</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.507217393356</v>
+        <v>1975.783440335472</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.507217393356</v>
+        <v>1602.317682074392</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.367885417544</v>
+        <v>1602.317682074392</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>710.7690176891825</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271156</v>
+        <v>934.6019044271159</v>
       </c>
       <c r="L3" t="n">
         <v>1281.89538449531</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131965</v>
+        <v>1706.527363131966</v>
       </c>
       <c r="N3" t="n">
         <v>2251.141463584999</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.6346080108983</v>
+        <v>638.6468014892279</v>
       </c>
       <c r="C4" t="n">
-        <v>476.6984250829914</v>
+        <v>603.7221833644564</v>
       </c>
       <c r="D4" t="n">
-        <v>476.6984250829914</v>
+        <v>603.7221833644564</v>
       </c>
       <c r="E4" t="n">
-        <v>476.6984250829914</v>
+        <v>455.8090897820633</v>
       </c>
       <c r="F4" t="n">
-        <v>476.6984250829914</v>
+        <v>308.9191422841529</v>
       </c>
       <c r="G4" t="n">
-        <v>308.919142284153</v>
+        <v>308.9191422841529</v>
       </c>
       <c r="H4" t="n">
         <v>162.0222795225637</v>
@@ -4489,13 +4489,13 @@
         <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589864</v>
+        <v>297.5053722589865</v>
       </c>
       <c r="L4" t="n">
-        <v>602.92588227127</v>
+        <v>602.9258822712701</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583197</v>
+        <v>935.3381100583198</v>
       </c>
       <c r="N4" t="n">
         <v>1265.280934468308</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001215</v>
       </c>
       <c r="R4" t="n">
-        <v>1819.856727754214</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="S4" t="n">
-        <v>1819.856727754214</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="T4" t="n">
-        <v>1819.856727754214</v>
+        <v>1626.809023920087</v>
       </c>
       <c r="U4" t="n">
-        <v>1530.749691088572</v>
+        <v>1337.701987254446</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.065202882686</v>
+        <v>1337.701987254446</v>
       </c>
       <c r="W4" t="n">
-        <v>1276.065202882686</v>
+        <v>1048.284817217485</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.075651984668</v>
+        <v>820.2952663194676</v>
       </c>
       <c r="Y4" t="n">
-        <v>827.2830728411381</v>
+        <v>820.2952663194676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605788</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653767</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D5" t="n">
-        <v>806.3384156653767</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E5" t="n">
-        <v>806.3384156653767</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="F5" t="n">
-        <v>395.3525108757692</v>
+        <v>320.3356310295721</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.90077266991</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592603</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556427</v>
+        <v>847.0593507163063</v>
       </c>
       <c r="X7" t="n">
-        <v>657.6489837069648</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.6489837069648</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.613680441807</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.613680441807</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.547769317912</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900051</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5212,7 +5212,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602307</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.74706939642</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359459</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614421</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317912</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836016</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556947</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>565.7099969556948</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>417.7969033733016</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138413</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327645</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048576</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400718</v>
+        <v>734.6461798836011</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556942</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556942</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270448</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703115</v>
+        <v>916.2946447138409</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270439</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
         <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656827</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438403</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,7 +7011,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954153</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,25 +7582,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954143</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>95.28760803838998</v>
+        <v>95.28760803838929</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>61.48308397972608</v>
       </c>
       <c r="G2" t="n">
-        <v>183.0400644499682</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>132.671449155104</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>63.57998784525177</v>
+        <v>92.33507763978305</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.90318636665783</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.37549921168784</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>46.24115926564362</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.8640922513195</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>121.3563835367929</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.24115926564471</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405082</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -26317,43 +26317,43 @@
         <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900064</v>
-      </c>
       <c r="G2" t="n">
+        <v>80714.65996900055</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.65996900058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="J2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>80714.65996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="K2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023812</v>
+        <v>54832.77288023815</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503628</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594298</v>
+        <v>32664.34410594295</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15992.65981853503</v>
+        <v>15992.65981853502</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,10 +26433,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,13 +26445,13 @@
         <v>20987.72340992392</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992396</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
         <v>20987.72340992391</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324640.646566617</v>
+        <v>-1325035.467507771</v>
       </c>
       <c r="C6" t="n">
-        <v>-172846.4353733849</v>
+        <v>-172846.4353733848</v>
       </c>
       <c r="D6" t="n">
         <v>-118013.6624931467</v>
       </c>
       <c r="E6" t="n">
-        <v>-358817.1958090924</v>
+        <v>-358851.9337345278</v>
       </c>
       <c r="F6" t="n">
-        <v>-33404.73400173691</v>
+        <v>-33439.47192717265</v>
       </c>
       <c r="G6" t="n">
-        <v>-33404.73400173697</v>
+        <v>-33439.47192717269</v>
       </c>
       <c r="H6" t="n">
-        <v>-33404.734001737</v>
+        <v>-33439.47192717266</v>
       </c>
       <c r="I6" t="n">
-        <v>-33404.73400173694</v>
+        <v>-33439.47192717266</v>
       </c>
       <c r="J6" t="n">
-        <v>-237479.3924520997</v>
+        <v>-237514.1303775354</v>
       </c>
       <c r="K6" t="n">
-        <v>-74712.00638335387</v>
+        <v>-74712.00638335392</v>
       </c>
       <c r="L6" t="n">
-        <v>-42047.66227741094</v>
+        <v>-42047.66227741099</v>
       </c>
       <c r="M6" t="n">
         <v>-127102.6902129228</v>
       </c>
       <c r="N6" t="n">
-        <v>-42047.66227741085</v>
+        <v>-42047.66227741093</v>
       </c>
       <c r="O6" t="n">
-        <v>-42047.66227741092</v>
+        <v>-42047.66227741094</v>
       </c>
       <c r="P6" t="n">
-        <v>-61475.38027104276</v>
+        <v>-61475.38027104271</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>779.9707176559092</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>85.36973515430356</v>
+        <v>159.6364462020387</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>253.689761745226</v>
       </c>
       <c r="X7" t="n">
-        <v>72.33420451884609</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.20290062824154</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>209.2755498368811</v>
+        <v>113.3030409789899</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.151399141643196e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578955</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.13914023359298</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.8193979727969</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774664</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477736</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212824</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967942</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034386</v>
       </c>
       <c r="Q2" t="n">
         <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495552</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063163</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967535</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.355874798252</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.0552244640947</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278062</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012074</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.3722063825128</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848087</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284283</v>
       </c>
       <c r="U3" t="n">
         <v>0.1482746817891886</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826819</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086572</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
         <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.0707363503609</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
         <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738643</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314391</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964339</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236526</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278163</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074792</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205009</v>
       </c>
       <c r="N2" t="n">
         <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751074</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481691</v>
       </c>
       <c r="Q2" t="n">
         <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.01487890242464</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.09470136139404</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>226.0938249878114</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.8014950183778</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420764</v>
       </c>
       <c r="N3" t="n">
-        <v>550.1152529828628</v>
+        <v>550.1152529828622</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.634199756763</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>296.3977989681825</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
-        <v>39.77392554120711</v>
+        <v>39.77392554120713</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726059</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689733</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
         <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.05692719615574</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
